--- a/data/trans_bre/P14_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14_2-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>157,8%</t>
+          <t>101,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-16,19%</t>
+          <t>-12,43%</t>
         </is>
       </c>
     </row>
@@ -609,12 +609,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 6,18</t>
+          <t>-1,78; 5,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 4,97</t>
+          <t>-8,33; 5,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-56,52; 74,43</t>
+          <t>-54,47; 86,53</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>49,99%</t>
+          <t>50,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>32,92%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 6,16</t>
+          <t>-2,53; 6,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 10,36</t>
+          <t>-2,52; 10,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,32; 377,38</t>
+          <t>-51,18; 345,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 112,91</t>
+          <t>-17,21; 115,11</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>63,72%</t>
+          <t>53,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 7,48</t>
+          <t>-1,16; 7,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 7,16</t>
+          <t>-6,03; 6,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 225,26</t>
+          <t>-19,24; 201,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 57,29</t>
+          <t>-28,19; 48,36</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,45</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-46,51%</t>
+          <t>-44,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-15,48%</t>
+          <t>-13,0%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 0,33</t>
+          <t>-7,03; 0,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 3,09</t>
+          <t>-7,77; 3,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,33; 14,17</t>
+          <t>-72,93; 7,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,84; 22,98</t>
+          <t>-39,41; 22,27</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-15,24%</t>
+          <t>-14,03%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 3,98</t>
+          <t>-3,04; 3,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 3,95</t>
+          <t>-7,19; 3,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-58,69; 215,71</t>
+          <t>-60,78; 212,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-46,84; 41,57</t>
+          <t>-47,34; 42,48</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-55,85%</t>
+          <t>-29,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>49,0%</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 0,92</t>
+          <t>-3,69; 1,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 4,45</t>
+          <t>-4,23; 5,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-78,51; 345,69</t>
+          <t>-72,62; 452,97</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>-0,94%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,97</t>
+          <t>-1,14; 1,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,14</t>
+          <t>-2,38; 2,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,36; 55,65</t>
+          <t>-23,86; 57,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 19,18</t>
+          <t>-17,14; 24,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14_2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,123 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>101,05%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-12,43%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.724198888214994</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.6038811808866229</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>1.326832313508889</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.05578680722745211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 5,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,33; 5,67</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-54,47; 86,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.340945112592211</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.255776002269513</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="n">
+        <v>-0.5057790959095252</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.558223904864013</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.520811303695797</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>1.020817882619883</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,25</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>50,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>32,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 6,15</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,52; 10,86</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-51,18; 345,21</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-17,21; 115,11</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.004498003264135</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.006779112923464</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.5702858255497449</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.3178631851260277</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>53,39%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,16%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.122939089603373</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.454713183713973</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.4724409384246879</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1749186434836956</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 7,08</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,03; 6,36</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-19,24; 201,88</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-28,19; 48,36</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.158291970085738</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.71587842602399</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>3.864032082084817</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.132370077033273</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +712,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-3,26</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-44,22%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-13,0%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.990831037510849</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.326446794234401</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.5310930566742287</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.08178037375767087</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,03; 0,25</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; 3,08</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-72,93; 7,29</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-39,41; 22,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.255691430148088</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.65726184478865</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.1825142190132482</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2683061851980151</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.116945265877346</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.730187843845892</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>2.112256798016419</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.5245155470112266</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,74</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>14,84%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-14,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,04; 3,99</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; 3,87</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-60,78; 212,74</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-47,34; 42,48</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-3.497198553459322</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.284891195540312</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.464748019092079</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.1374604777101674</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-29,13%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>49,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.578157054083666</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.646757318507669</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.7437158591767454</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3988010109878556</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 1,54</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 5,11</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-72,62; 452,97</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.1180168295516793</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.003814910571025</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.02381038192185161</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2210485655264601</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +840,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>8,98%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,94%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.5789721661479813</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.921707368330237</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.1600700457557142</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.1533374146616963</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 1,92</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,38; 2,62</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-23,86; 57,25</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-17,14; 24,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-2.955548264547968</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.35283538278379</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.6027363360716217</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.4756617308237195</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.110346467364003</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.81457251843473</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>2.094119822974314</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.4103162289009106</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-1.182148941791999</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1.379985453481489</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.5295582846656711</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.4249733572505286</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-5.342061982088672</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-4.705394422789247</v>
+      </c>
+      <c r="E20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="n">
+        <v>-0.7545493427254595</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0.889812068284429</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>5.008763819707168</v>
+      </c>
+      <c r="E21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="n">
+        <v>4.400252193422912</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.2564107911590618</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.009395134901069024</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.06130109471117554</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.0007601629896661348</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.279898037846647</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.332969884488812</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.2489908059793829</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.1707903841834488</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.840230528075088</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.744187739994663</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.5486590902517315</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.2582029157390756</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1026,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
